--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="116">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,123 +46,126 @@
     <t>negative</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>creepy</t>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>boring</t>
   </si>
   <si>
-    <t>worst</t>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dumb</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>shocking</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>seriously</t>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>least</t>
+    <t>little</t>
   </si>
   <si>
     <t>fake</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>[UNK]</t>
   </si>
   <si>
@@ -175,16 +178,22 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>powerful</t>
@@ -193,184 +202,163 @@
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>high</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>high</t>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>live</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>right</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>opener</t>
   </si>
   <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>irony</t>
+    <t>change</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>change</t>
+    <t>world</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
     <t>want</t>
   </si>
   <si>
-    <t>facebook</t>
+    <t>know</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>eye</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>amp</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>’</t>
+  </si>
+  <si>
     <t>watched</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -731,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -742,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -821,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -871,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -903,10 +891,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -921,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -950,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -968,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6">
         <v>0.9</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -992,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1000,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9423076923076923</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1018,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1042,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1071,16 +1059,16 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1092,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1100,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1118,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9">
         <v>0.75</v>
@@ -1150,13 +1138,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.875</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1168,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10">
         <v>0.7368421052631579</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1192,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1200,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1218,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.72</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L11">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1242,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1250,13 +1238,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8333333333333334</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1268,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.7017543859649122</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1292,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1300,13 +1288,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1318,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13">
         <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1342,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1350,13 +1338,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1371,16 +1359,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1392,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1400,13 +1388,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1418,31 +1406,31 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>4</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L15">
-        <v>8</v>
-      </c>
-      <c r="M15">
-        <v>8</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1450,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1468,31 +1456,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K16">
         <v>0.6153846153846154</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1500,13 +1488,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7647058823529411</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1518,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.5862068965517241</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1542,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1550,13 +1538,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.75</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1568,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>0.5833333333333334</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L18">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1592,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1600,13 +1588,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1618,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.5714285714285714</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1642,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1650,13 +1638,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7391304347826086</v>
+        <v>0.7</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1668,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1692,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1700,13 +1688,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.723404255319149</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1718,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K21">
         <v>0.5</v>
@@ -1750,13 +1738,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1768,19 +1756,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.4782608695652174</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1792,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1821,16 +1809,16 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.4615384615384616</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="L23">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1842,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1853,10 +1841,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1868,19 +1856,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.4583333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1892,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1900,13 +1888,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1918,19 +1906,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.4242424242424243</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1942,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1950,13 +1938,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6363636363636364</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1968,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.4210526315789473</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L26">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1992,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2000,13 +1988,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6285714285714286</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2018,31 +2006,31 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>13</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="L27">
-        <v>15</v>
-      </c>
-      <c r="M27">
-        <v>15</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2050,13 +2038,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6159420289855072</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C28">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2068,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.375</v>
+        <v>0.3087431693989071</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>339</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>339</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2092,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>759</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2100,37 +2088,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5882352941176471</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>10</v>
       </c>
-      <c r="D29">
-        <v>10</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
+      <c r="J29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29">
+        <v>0.3043478260869565</v>
+      </c>
+      <c r="L29">
         <v>7</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K29">
-        <v>0.360655737704918</v>
-      </c>
-      <c r="L29">
-        <v>22</v>
-      </c>
       <c r="M29">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2142,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2150,13 +2138,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5769230769230769</v>
+        <v>0.6</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2168,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.3389830508474576</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2192,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2200,13 +2188,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5714285714285714</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2218,19 +2206,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>0.3214285714285715</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L31">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M31">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2242,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2250,13 +2238,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5416666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2268,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K32">
-        <v>0.3157894736842105</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L32">
         <v>6</v>
@@ -2292,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2303,10 +2291,10 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2318,19 +2306,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.2996357012750455</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L33">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>329</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2342,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>769</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2350,13 +2338,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2368,19 +2356,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>0.2962962962962963</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2392,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2421,16 +2409,16 @@
         <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>0.2608695652173913</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2442,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2450,13 +2438,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2468,19 +2456,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K36">
-        <v>0.2580645161290323</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2492,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2500,13 +2488,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4642857142857143</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2518,31 +2506,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37">
-        <v>0.2352941176470588</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <v>6</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>20</v>
-      </c>
-      <c r="M37">
-        <v>20</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2550,13 +2538,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4358974358974359</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2568,19 +2556,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38">
-        <v>0.2307692307692308</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2592,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2603,10 +2591,10 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="C39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2618,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K39">
-        <v>0.2307692307692308</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L39">
         <v>6</v>
@@ -2642,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2650,13 +2638,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2668,13 +2656,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K40">
-        <v>0.2</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L40">
         <v>10</v>
@@ -2692,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2700,13 +2688,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3157894736842105</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2718,19 +2706,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K41">
-        <v>0.1956521739130435</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="L41">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M41">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2742,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2750,37 +2738,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2307692307692308</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>18</v>
       </c>
-      <c r="D42">
-        <v>18</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>60</v>
-      </c>
       <c r="J42" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K42">
-        <v>0.1951219512195122</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="L42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2792,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2800,7 +2788,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1714285714285714</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -2818,19 +2806,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K43">
-        <v>0.1894736842105263</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2842,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2850,37 +2838,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.06164383561643835</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D44">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E44">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>274</v>
+        <v>62</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K44">
-        <v>0.1875</v>
+        <v>0.16</v>
       </c>
       <c r="L44">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M44">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2892,21 +2880,45 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.06440677966101695</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>23</v>
+      </c>
+      <c r="E45">
+        <v>0.17</v>
+      </c>
+      <c r="F45">
+        <v>0.83</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>276</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>0.1851851851851852</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="L45">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2918,21 +2930,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K46">
-        <v>0.175</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="L46">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M46">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2944,15 +2956,15 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>0.1707317073170732</v>
+        <v>0.14</v>
       </c>
       <c r="L47">
         <v>7</v>
@@ -2970,21 +2982,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K48">
-        <v>0.1549295774647887</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L48">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M48">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2996,21 +3008,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K49">
-        <v>0.1463414634146341</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="L49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3022,21 +3034,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K50">
-        <v>0.136986301369863</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L50">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M50">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3048,21 +3060,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>0.1333333333333333</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3074,21 +3086,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>0.12</v>
+        <v>0.1015873015873016</v>
       </c>
       <c r="L52">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="M52">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3100,21 +3112,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>44</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K53">
-        <v>0.1153846153846154</v>
+        <v>0.09540636042402827</v>
       </c>
       <c r="L53">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="M53">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3126,21 +3138,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>46</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K54">
-        <v>0.1092592592592593</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L54">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M54">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3152,99 +3164,99 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K55">
-        <v>0.1052631578947368</v>
+        <v>0.08529411764705883</v>
       </c>
       <c r="L55">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>68</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K56">
-        <v>0.1012658227848101</v>
+        <v>0.08459214501510574</v>
       </c>
       <c r="L56">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="M56">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>71</v>
+        <v>606</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K57">
-        <v>0.09593495934959349</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L57">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="M57">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="N57">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>556</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K58">
-        <v>0.09186746987951808</v>
+        <v>0.08029197080291971</v>
       </c>
       <c r="L58">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="M58">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3256,99 +3268,99 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>603</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K59">
-        <v>0.08955223880597014</v>
+        <v>0.08</v>
       </c>
       <c r="L59">
         <v>6</v>
       </c>
       <c r="M59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K60">
+        <v>0.06956521739130435</v>
+      </c>
+      <c r="L60">
+        <v>8</v>
+      </c>
+      <c r="M60">
+        <v>8</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>107</v>
-      </c>
-      <c r="K60">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="L60">
-        <v>8</v>
-      </c>
-      <c r="M60">
-        <v>8</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>84</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K61">
-        <v>0.08156028368794327</v>
+        <v>0.06455331412103746</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="M61">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="N61">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O61">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>259</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K62">
-        <v>0.07936507936507936</v>
+        <v>0.06168831168831169</v>
       </c>
       <c r="L62">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M62">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3360,15 +3372,15 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>290</v>
+        <v>578</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K63">
-        <v>0.07792207792207792</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="L63">
         <v>6</v>
@@ -3386,21 +3398,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K64">
-        <v>0.07624633431085044</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L64">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="M64">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3412,215 +3424,59 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>315</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K65">
-        <v>0.072992700729927</v>
+        <v>0.04364569961489088</v>
       </c>
       <c r="L65">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M65">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>127</v>
+        <v>745</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K66">
-        <v>0.05824682814302191</v>
+        <v>0.0313588850174216</v>
       </c>
       <c r="L66">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="M66">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="N66">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="O66">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="67" spans="10:17">
-      <c r="J67" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K67">
-        <v>0.05504587155963303</v>
-      </c>
-      <c r="L67">
-        <v>6</v>
-      </c>
-      <c r="M67">
-        <v>6</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K68">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="L68">
-        <v>6</v>
-      </c>
-      <c r="M68">
-        <v>6</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K69">
-        <v>0.04513888888888889</v>
-      </c>
-      <c r="L69">
-        <v>13</v>
-      </c>
-      <c r="M69">
-        <v>13</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K70">
-        <v>0.03726708074534162</v>
-      </c>
-      <c r="L70">
-        <v>6</v>
-      </c>
-      <c r="M70">
-        <v>6</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K71">
-        <v>0.03457106274007683</v>
-      </c>
-      <c r="L71">
-        <v>27</v>
-      </c>
-      <c r="M71">
-        <v>27</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="72" spans="10:17">
-      <c r="J72" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K72">
-        <v>0.02491103202846975</v>
-      </c>
-      <c r="L72">
-        <v>7</v>
-      </c>
-      <c r="M72">
-        <v>25</v>
-      </c>
-      <c r="N72">
-        <v>0.28</v>
-      </c>
-      <c r="O72">
-        <v>0.72</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
